--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9170" windowHeight="8330"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Furniture" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>//Remark</t>
   </si>
@@ -34,6 +34,12 @@
     <t>width</t>
   </si>
   <si>
+    <t>xoffset</t>
+  </si>
+  <si>
+    <t>yoffset</t>
+  </si>
+  <si>
     <t>canBuy</t>
   </si>
   <si>
@@ -44,6 +50,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>bool</t>
@@ -992,20 +1001,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1027,36 +1036,48 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1064,19 +1085,19 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="I4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1084,19 +1105,22 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="b">
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1104,7 +1128,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
+      <c r="H6" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12080"/>
+    <workbookView windowWidth="11480" windowHeight="10010"/>
   </bookViews>
   <sheets>
     <sheet name="Furniture" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>//Remark</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>Coffee</t>
+  </si>
+  <si>
+    <t>spCoffee</t>
+  </si>
+  <si>
+    <t>LoveLamp</t>
+  </si>
+  <si>
+    <t>spLoveLamp</t>
+  </si>
+  <si>
+    <t>Rope</t>
+  </si>
+  <si>
+    <t>spRope</t>
+  </si>
+  <si>
+    <t>SexBed</t>
+  </si>
+  <si>
+    <t>spLoveBed</t>
   </si>
 </sst>
 </file>
@@ -1001,13 +1022,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="9" max="9" width="11.1818181818182" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1115,7 +1139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1128,8 +1152,77 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
       <c r="H6" t="b">
         <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>2002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>9001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11480" windowHeight="10010"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Furniture" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>//Remark</t>
   </si>
@@ -25,6 +25,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>furnitureType</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
@@ -34,6 +37,33 @@
     <t>width</t>
   </si>
   <si>
+    <t>coinDelta</t>
+  </si>
+  <si>
+    <t>energyDelta</t>
+  </si>
+  <si>
+    <t>timeDelta</t>
+  </si>
+  <si>
+    <t>supportFurni1</t>
+  </si>
+  <si>
+    <t>supportValue1</t>
+  </si>
+  <si>
+    <t>supportDelta1</t>
+  </si>
+  <si>
+    <t>supportFurni2</t>
+  </si>
+  <si>
+    <t>supportValue2</t>
+  </si>
+  <si>
+    <t>supportDelta2</t>
+  </si>
+  <si>
     <t>xoffset</t>
   </si>
   <si>
@@ -43,6 +73,9 @@
     <t>canBuy</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>iconUrl</t>
   </si>
   <si>
@@ -52,6 +85,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum|FurniType</t>
+  </si>
+  <si>
+    <t>enum|SupportValueType</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -61,34 +100,88 @@
     <t>Bed</t>
   </si>
   <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Can rest to restore energy.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>spBed</t>
   </si>
   <si>
     <t>Computer</t>
   </si>
   <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Develop indie game.</t>
+  </si>
+  <si>
     <t>spPC</t>
   </si>
   <si>
+    <t>IceCream Machine</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Sell icecream to guest.</t>
+  </si>
+  <si>
+    <t>spIceCream</t>
+  </si>
+  <si>
     <t>Coffee</t>
   </si>
   <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Drink to restore energy.</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t>spCoffee</t>
   </si>
   <si>
     <t>LoveLamp</t>
   </si>
   <si>
+    <t>It is strange.</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
     <t>spLoveLamp</t>
   </si>
   <si>
     <t>Rope</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Seem useless.</t>
+  </si>
+  <si>
     <t>spRope</t>
   </si>
   <si>
     <t>SexBed</t>
+  </si>
+  <si>
+    <t>Prostistution.</t>
   </si>
   <si>
     <t>spLoveBed</t>
@@ -257,12 +350,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -583,7 +688,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,16 +712,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -625,90 +730,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,15 +1133,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="9" max="9" width="11.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="17.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="16.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="29.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="11.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="12.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="9.90909090909091" customWidth="1"/>
+    <col min="10" max="10" width="15.3636363636364" customWidth="1"/>
+    <col min="11" max="11" width="22.7272727272727" customWidth="1"/>
+    <col min="12" max="12" width="13.8181818181818" customWidth="1"/>
+    <col min="13" max="13" width="15.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="22.0909090909091" customWidth="1"/>
+    <col min="15" max="15" width="13.9090909090909" customWidth="1"/>
+    <col min="20" max="20" width="11.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1038,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1057,172 +1182,459 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5">
         <v>0.2</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:20">
       <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>-3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>0.4</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
         <v>2001</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
         <v>0.2</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+    <row r="8" spans="1:20">
+      <c r="A8">
         <v>2002</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8">
+        <v>-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.2</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.2</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
+      <c r="T8" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+    <row r="9" spans="1:20">
+      <c r="A9">
         <v>2003</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+    <row r="10" spans="1:20">
+      <c r="A10">
         <v>9001</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" t="b">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>25</v>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>//Remark</t>
   </si>
@@ -49,18 +49,12 @@
     <t>supportFurni1</t>
   </si>
   <si>
-    <t>supportValue1</t>
-  </si>
-  <si>
     <t>supportDelta1</t>
   </si>
   <si>
     <t>supportFurni2</t>
   </si>
   <si>
-    <t>supportValue2</t>
-  </si>
-  <si>
     <t>supportDelta2</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>enum|FurniType</t>
   </si>
   <si>
-    <t>enum|SupportValueType</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -145,12 +136,6 @@
     <t>Drink to restore energy.</t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>spCoffee</t>
   </si>
   <si>
@@ -158,9 +143,6 @@
   </si>
   <si>
     <t>It is strange.</t>
-  </si>
-  <si>
-    <t>Coin</t>
   </si>
   <si>
     <t>spLoveLamp</t>
@@ -1133,12 +1115,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K10" sqref="K10"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1150,12 +1132,10 @@
     <col min="8" max="8" width="12.2727272727273" customWidth="1"/>
     <col min="9" max="9" width="9.90909090909091" customWidth="1"/>
     <col min="10" max="10" width="15.3636363636364" customWidth="1"/>
-    <col min="11" max="11" width="22.7272727272727" customWidth="1"/>
-    <col min="12" max="12" width="13.8181818181818" customWidth="1"/>
-    <col min="13" max="13" width="15.2727272727273" customWidth="1"/>
-    <col min="14" max="14" width="22.0909090909091" customWidth="1"/>
-    <col min="15" max="15" width="13.9090909090909" customWidth="1"/>
-    <col min="20" max="20" width="11.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="13.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="15.2727272727273" customWidth="1"/>
+    <col min="13" max="13" width="13.9090909090909" customWidth="1"/>
+    <col min="18" max="18" width="11.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1163,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1203,10 +1183,10 @@
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
         <v>15</v>
       </c>
       <c r="P2" t="s">
@@ -1218,87 +1198,75 @@
       <c r="R2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1313,39 +1281,33 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" t="b">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="b">
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="Q4">
         <v>10</v>
       </c>
-      <c r="T4" t="s">
-        <v>31</v>
+      <c r="R4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1363,42 +1325,36 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5">
+        <v>0.2</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5">
         <v>100</v>
       </c>
-      <c r="T5" t="s">
-        <v>35</v>
+      <c r="R5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1416,92 +1372,80 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>0.4</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.4</v>
-      </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6">
         <v>20</v>
       </c>
-      <c r="T6" t="s">
-        <v>39</v>
+      <c r="R6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>0.2</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>0.2</v>
-      </c>
-      <c r="R7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>5</v>
-      </c>
-      <c r="T7" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1510,48 +1454,42 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>0.2</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
         <v>43</v>
       </c>
-      <c r="O8">
-        <v>-2</v>
-      </c>
-      <c r="Q8">
-        <v>0.2</v>
-      </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>20</v>
-      </c>
-      <c r="T8" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1566,39 +1504,33 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9001</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1613,28 +1545,22 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" t="b">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="b">
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="T10" t="s">
-        <v>56</v>
+      <c r="R10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>//Remark</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>energyDelta</t>
+  </si>
+  <si>
+    <t>specialDelta</t>
   </si>
   <si>
     <t>timeDelta</t>
@@ -1115,12 +1118,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1129,13 +1132,13 @@
     <col min="3" max="3" width="16.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="29.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="11.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="12.2727272727273" customWidth="1"/>
-    <col min="9" max="9" width="9.90909090909091" customWidth="1"/>
-    <col min="10" max="10" width="15.3636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="15.2727272727273" customWidth="1"/>
-    <col min="13" max="13" width="13.9090909090909" customWidth="1"/>
-    <col min="18" max="18" width="11.1818181818182" customWidth="1"/>
+    <col min="8" max="9" width="12.2727272727273" customWidth="1"/>
+    <col min="10" max="10" width="9.90909090909091" customWidth="1"/>
+    <col min="11" max="11" width="15.3636363636364" customWidth="1"/>
+    <col min="12" max="12" width="13.8181818181818" customWidth="1"/>
+    <col min="13" max="13" width="15.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="13.9090909090909" customWidth="1"/>
+    <col min="19" max="19" width="11.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1174,7 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1183,7 +1186,7 @@
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O2" t="s">
@@ -1198,75 +1201,81 @@
       <c r="R2" t="s">
         <v>18</v>
       </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
         <v>22</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
         <v>20</v>
       </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1277,84 +1286,84 @@
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="b">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
-        <v>28</v>
+      <c r="S4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
         <v>-2</v>
       </c>
       <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5">
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5">
         <v>0.2</v>
       </c>
-      <c r="P5" t="b">
+      <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>100</v>
       </c>
-      <c r="R5" t="s">
-        <v>32</v>
+      <c r="S5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1368,40 +1377,40 @@
       <c r="H6">
         <v>-3</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6">
         <v>0.4</v>
       </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6">
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>20</v>
       </c>
-      <c r="R6" t="s">
-        <v>36</v>
+      <c r="S6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1409,43 +1418,43 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7">
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7">
         <v>-1</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.2</v>
       </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7">
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="R7" t="s">
-        <v>40</v>
+      <c r="S7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1453,43 +1462,43 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8">
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8">
         <v>-1</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.2</v>
       </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8">
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>20</v>
       </c>
-      <c r="R8" t="s">
-        <v>43</v>
+      <c r="S8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1500,37 +1509,37 @@
       <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9001</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1544,23 +1553,23 @@
       <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="b">
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
-        <v>50</v>
+      <c r="S10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12080"/>
+    <workbookView windowWidth="12580" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Furniture" sheetId="1" r:id="rId1"/>
@@ -1123,7 +1123,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12580" windowHeight="12810"/>
+    <workbookView windowWidth="18470" windowHeight="5530"/>
   </bookViews>
   <sheets>
     <sheet name="Furniture" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>//Remark</t>
   </si>
@@ -70,6 +70,9 @@
     <t>canBuy</t>
   </si>
   <si>
+    <t>canSell</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -136,16 +139,16 @@
     <t>Support</t>
   </si>
   <si>
-    <t>Drink to restore energy.</t>
+    <t>Keep working!</t>
   </si>
   <si>
     <t>spCoffee</t>
   </si>
   <si>
-    <t>LoveLamp</t>
-  </si>
-  <si>
-    <t>It is strange.</t>
+    <t>Love Lamp</t>
+  </si>
+  <si>
+    <t>Give consumers strange emotion.</t>
   </si>
   <si>
     <t>spLoveLamp</t>
@@ -154,22 +157,46 @@
     <t>Rope</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Seem useless.</t>
+    <t>Seem useless but can force you work.</t>
   </si>
   <si>
     <t>spRope</t>
   </si>
   <si>
-    <t>SexBed</t>
-  </si>
-  <si>
-    <t>Prostistution.</t>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>Threat the consumers to give money.</t>
+  </si>
+  <si>
+    <t>spKnife</t>
+  </si>
+  <si>
+    <t>Old Book</t>
+  </si>
+  <si>
+    <t>A old that can make you sleep faster.</t>
+  </si>
+  <si>
+    <t>spMagicBook</t>
+  </si>
+  <si>
+    <t>Horny Bed</t>
+  </si>
+  <si>
+    <t>Give sex service to consumers.</t>
   </si>
   <si>
     <t>spLoveBed</t>
+  </si>
+  <si>
+    <t>Sacrificial Rite</t>
+  </si>
+  <si>
+    <t>Scarifice a consumer.</t>
+  </si>
+  <si>
+    <t>spMagicCircle</t>
   </si>
 </sst>
 </file>
@@ -1118,19 +1145,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="topRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="16.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="29.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="37.4545454545455" customWidth="1"/>
     <col min="7" max="7" width="11.5454545454545" customWidth="1"/>
     <col min="8" max="9" width="12.2727272727273" customWidth="1"/>
     <col min="10" max="10" width="9.90909090909091" customWidth="1"/>
@@ -1138,7 +1165,7 @@
     <col min="12" max="12" width="13.8181818181818" customWidth="1"/>
     <col min="13" max="13" width="15.2727272727273" customWidth="1"/>
     <col min="14" max="14" width="13.9090909090909" customWidth="1"/>
-    <col min="19" max="19" width="11.1818181818182" customWidth="1"/>
+    <col min="20" max="20" width="11.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1146,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1204,78 +1231,84 @@
       <c r="S2" t="s">
         <v>19</v>
       </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
         <v>21</v>
       </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1290,33 +1323,36 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>10</v>
       </c>
-      <c r="S4" t="s">
-        <v>29</v>
+      <c r="T4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1334,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5">
         <v>0.2</v>
@@ -1345,25 +1381,28 @@
       <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>100</v>
       </c>
-      <c r="S5" t="s">
-        <v>33</v>
+      <c r="T5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1381,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6">
         <v>0.4</v>
@@ -1392,25 +1431,28 @@
       <c r="Q6" t="b">
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>20</v>
       </c>
-      <c r="S6" t="s">
-        <v>37</v>
+      <c r="T6" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1419,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1436,25 +1478,28 @@
       <c r="Q7" t="b">
         <v>1</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>5</v>
       </c>
-      <c r="S7" t="s">
-        <v>41</v>
+      <c r="T7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1463,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1480,22 +1525,25 @@
       <c r="Q8" t="b">
         <v>1</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>20</v>
       </c>
-      <c r="S8" t="s">
-        <v>44</v>
+      <c r="T8" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
@@ -1513,63 +1561,204 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10">
-        <v>9001</v>
+        <v>2004</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>-1</v>
       </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>20</v>
+      </c>
+      <c r="T10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>2005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" t="b">
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="S11">
+        <v>20</v>
+      </c>
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>9001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="b">
         <v>0</v>
       </c>
-      <c r="S10" t="s">
-        <v>51</v>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>9002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>-5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18470" windowHeight="5530"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Furniture" sheetId="1" r:id="rId1"/>
@@ -1148,9 +1148,9 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T13" sqref="T13"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1316,11 +1316,11 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>-5</v>
+      </c>
       <c r="H4">
         <v>10</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
@@ -1360,15 +1360,16 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>-2</v>
+      </c>
       <c r="H5">
         <v>-2</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
+      <c r="J5"/>
       <c r="K5" t="s">
         <v>29</v>
       </c>
@@ -1411,13 +1412,10 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>-3</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -1557,9 +1555,6 @@
       <c r="H9">
         <v>-1</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9" t="s">
         <v>32</v>
       </c>
@@ -1607,9 +1602,6 @@
       <c r="H10">
         <v>-1</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
       <c r="K10" t="s">
         <v>29</v>
       </c>
@@ -1694,9 +1686,6 @@
       </c>
       <c r="H12">
         <v>-1</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
       </c>
       <c r="K12" t="s">
         <v>29</v>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -1148,9 +1148,9 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L9" sqref="L9"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1369,7 +1369,6 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5"/>
       <c r="K5" t="s">
         <v>29</v>
       </c>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -824,12 +824,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1148,16 +1151,16 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="16.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="37.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="41.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="11.5454545454545" customWidth="1"/>
     <col min="8" max="9" width="12.2727272727273" customWidth="1"/>
     <col min="10" max="10" width="9.90909090909091" customWidth="1"/>
@@ -1204,16 +1207,16 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O2" t="s">
@@ -1266,16 +1269,16 @@
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
@@ -1317,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1411,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>-2</v>
@@ -1448,7 +1451,7 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E7">

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -1151,9 +1151,9 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L17" sqref="L17"/>
+      <selection pane="topRight" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>-2</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T6" t="s">
         <v>38</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T8" t="s">
         <v>45</v>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T10" t="s">
         <v>51</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T11" t="s">
         <v>54</v>
@@ -1684,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K12" t="s">
         <v>29</v>
@@ -1731,7 +1731,7 @@
         <v>50</v>
       </c>
       <c r="H13">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="K13" t="s">
         <v>29</v>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>//Remark</t>
   </si>
@@ -131,6 +131,24 @@
   </si>
   <si>
     <t>spIceCream</t>
+  </si>
+  <si>
+    <t>Sleep Bag</t>
+  </si>
+  <si>
+    <t>Can simply sleep.</t>
+  </si>
+  <si>
+    <t>spSleepBag</t>
+  </si>
+  <si>
+    <t>Divination</t>
+  </si>
+  <si>
+    <t>Get some divine money</t>
+  </si>
+  <si>
+    <t>spCard</t>
   </si>
   <si>
     <t>Coffee</t>
@@ -1148,7 +1166,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
@@ -1414,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>-2</v>
@@ -1443,34 +1461,34 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
       <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="P7">
         <v>0.2</v>
@@ -1482,42 +1500,42 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>2002</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
       <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="P8">
         <v>0.2</v>
@@ -1532,20 +1550,20 @@
         <v>10</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E9">
@@ -1553,18 +1571,21 @@
       </c>
       <c r="F9">
         <v>1</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
       </c>
       <c r="K9" t="s">
         <v>32</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <v>0.2</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
@@ -1573,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s">
         <v>48</v>
@@ -1581,13 +1602,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
@@ -1598,17 +1619,20 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10">
         <v>-1</v>
       </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>29</v>
+      <c r="P10">
+        <v>0.2</v>
       </c>
       <c r="Q10" t="b">
         <v>1</v>
@@ -1625,13 +1649,13 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -1642,11 +1666,14 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="s">
         <v>29</v>
@@ -1655,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="R11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s">
         <v>54</v>
@@ -1666,7 +1693,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>9001</v>
+        <v>2004</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -1678,7 +1705,7 @@
         <v>56</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1687,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="H12">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K12" t="s">
         <v>29</v>
@@ -1696,13 +1723,13 @@
         <v>29</v>
       </c>
       <c r="Q12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" t="s">
         <v>57</v>
@@ -1710,13 +1737,13 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13">
-        <v>9002</v>
+        <v>2005</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
@@ -1727,29 +1754,117 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <v>-3</v>
-      </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
       </c>
       <c r="Q13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T13" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>9001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>-3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>9002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>-3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Furniture.xlsx
+++ b/Assets/Excel/Furniture.xlsx
@@ -1169,9 +1169,9 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T19" sqref="T19"/>
+      <selection pane="topRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1382,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1435,7 +1435,7 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T7" t="s">
         <v>41</v>
@@ -1526,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K8" t="s">
         <v>29</v>
@@ -1623,7 +1623,7 @@
         <v>36</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="s">
         <v>27</v>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s">
         <v>51</v>
@@ -1729,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T12" t="s">
         <v>57</v>
@@ -1764,7 +1764,7 @@
         <v>36</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
